--- a/TP1/tablas/19.xlsx
+++ b/TP1/tablas/19.xlsx
@@ -469,17 +469,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111100000010001011101110111000</t>
+          <t>111101111010101101010110110011</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8799059799316118</v>
+        <v>0.9359753248780518</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001152492730426141</v>
+        <v>0.04288710317249519</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4061525376989936</v>
+        <v>0.5449269110666202</v>
       </c>
     </row>
     <row r="3">
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>111100000010001011101110111000</t>
+          <t>111101111010101101010110110011</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8799059799316118</v>
+        <v>0.9359753248780518</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6371453704884484</v>
+        <v>0.4895102378827652</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8005585665829619</v>
+        <v>0.6981919740518754</v>
       </c>
     </row>
     <row r="4">
@@ -513,17 +513,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111100000010001011101110111011</t>
+          <t>111101111010101101010110110111</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8799059851732799</v>
+        <v>0.9359753320861769</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5724748403495931</v>
+        <v>0.5273611445630106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8015983963967693</v>
+        <v>0.7745138896389954</v>
       </c>
     </row>
     <row r="5">
@@ -535,17 +535,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>111100011011000111100100011000</t>
+          <t>111101111010101101010110110111</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8913638371686776</v>
+        <v>0.9359753320861769</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6371453704884484</v>
+        <v>0.5273611445630106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8221525086228632</v>
+        <v>0.8227086109155509</v>
       </c>
     </row>
     <row r="6">
@@ -557,17 +557,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>111100011011001011101110111000</t>
+          <t>111101111010101101010110110111</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9359753320861769</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7772550067560746</v>
+        <v>0.5273611445630106</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8589091631693661</v>
+        <v>0.8349721765401965</v>
       </c>
     </row>
     <row r="7">
@@ -579,17 +579,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>111100011011001011101110111000</t>
+          <t>111110101001010011110001000111</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9581182957678596</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7772550034717817</v>
+        <v>0.8188921376246626</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8600549489136624</v>
+        <v>0.8975775265316546</v>
       </c>
     </row>
     <row r="8">
@@ -601,17 +601,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>111100011011001011101110111000</t>
+          <t>111110101001010011110001000111</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9581182957678596</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7772550034717817</v>
+        <v>0.8188917297198883</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8589123615372014</v>
+        <v>0.8975801087417248</v>
       </c>
     </row>
     <row r="9">
@@ -623,17 +623,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>111100011011001011101110111000</t>
+          <t>111110101001010011110001000111</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9581182957678596</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7666866441038319</v>
+        <v>0.8188923500048747</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8613096545124996</v>
+        <v>0.9070482143204645</v>
       </c>
     </row>
     <row r="10">
@@ -645,17 +645,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>111100011011001011101110111000</t>
+          <t>111110101001010011110001000111</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9581182957678596</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7666866441038319</v>
+        <v>0.8396701490447454</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8550325128197311</v>
+        <v>0.9111820498120731</v>
       </c>
     </row>
     <row r="11">
@@ -667,17 +667,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>111100011011001011101110111000</t>
+          <t>111110101001010011110110110111</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9581189667138894</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8913638371686776</v>
+        <v>0.8396701490447454</v>
       </c>
       <c r="F11" t="n">
-        <v>0.891387832592477</v>
+        <v>0.9134624661246699</v>
       </c>
     </row>
     <row r="12">
@@ -689,17 +689,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>111100011011001011101110111000</t>
+          <t>111110101001010011110110110111</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9581189667138894</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8913650189225891</v>
+        <v>0.8396701490447454</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8913909501979917</v>
+        <v>0.9038980650874031</v>
       </c>
     </row>
     <row r="13">
@@ -711,17 +711,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>111100011011001011101110111000</t>
+          <t>111110101001010011110110110111</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9581189667138894</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8913650189225891</v>
+        <v>0.8396701490447454</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8913909501979915</v>
+        <v>0.8897727670078919</v>
       </c>
     </row>
     <row r="14">
@@ -733,17 +733,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>111100011011001011101110111000</t>
+          <t>111110101001010011110110110111</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9581189667138894</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8913650189225891</v>
+        <v>0.8396701490447454</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8913909501979917</v>
+        <v>0.9089014466744505</v>
       </c>
     </row>
     <row r="15">
@@ -755,17 +755,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>111100011011001011101110111000</t>
+          <t>111110101001010011110110110111</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9581189667138894</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8913650189225891</v>
+        <v>0.8396701490447454</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8913909501979917</v>
+        <v>0.9348716893313952</v>
       </c>
     </row>
     <row r="16">
@@ -777,17 +777,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>111100011011001011101110111000</t>
+          <t>111110101001010011110111000111</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9581189958854615</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.8396701217358291</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9157428842300639</v>
       </c>
     </row>
     <row r="17">
@@ -799,17 +799,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>111100011011001011101110111000</t>
+          <t>111110101001010011110111000111</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9581189958854615</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.8396701490447454</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9180233681630383</v>
       </c>
     </row>
     <row r="18">
@@ -821,17 +821,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>111100011011001011101110111000</t>
+          <t>111110101001010011110111000111</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9581189958854615</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.8396701490447454</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9157428882366567</v>
       </c>
     </row>
     <row r="19">
@@ -843,17 +843,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>111100011011001011101110111000</t>
+          <t>111110101001010011110111000111</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9581189958854615</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.8396701490447454</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9061784922304383</v>
       </c>
     </row>
     <row r="20">
@@ -865,17 +865,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>111100011011001011101110111000</t>
+          <t>111110101001010011110111000111</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9581189958854615</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.8396701490447454</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.8847691312586502</v>
       </c>
     </row>
     <row r="21">
@@ -887,17 +887,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>111100011011001011101110111000</t>
+          <t>111110101001010011110111000111</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.9581189958854615</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.8396701490447454</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8913938314508142</v>
+        <v>0.8942969128086302</v>
       </c>
     </row>
   </sheetData>
